--- a/biology/Zoologie/Aplysiidae/Aplysiidae.xlsx
+++ b/biology/Zoologie/Aplysiidae/Aplysiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aplysiidae sont une famille de gastéropodes opisthobranches qui ont une coquille réduite à une lamelle dorsale internalisée. Ils se nourrissent d'algues et sont hermaphrodites.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aplysies, de l’ordre des Anaspidea, portent le nom vernaculaire de « lièvres de mer » en raison de leurs rhinophores érigés qui font penser à des oreilles de lapin. Elles peuvent parfois nager au moyen des expansions latérales du manteau[1].
-L'animal respire via une respiration branchiale qui se manifeste par des branchies visibles dorsalement où elles forment une structure ressemblant à un buisson. Ces branchies sont operculées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aplysies, de l’ordre des Anaspidea, portent le nom vernaculaire de « lièvres de mer » en raison de leurs rhinophores érigés qui font penser à des oreilles de lapin. Elles peuvent parfois nager au moyen des expansions latérales du manteau.
+L'animal respire via une respiration branchiale qui se manifeste par des branchies visibles dorsalement où elles forment une structure ressemblant à un buisson. Ces branchies sont operculées.
 			Silhouette générale d'une aplysie.
 			Gros individu d'Aplysia californica
 			« visage » d'Aplysia juliana
@@ -557,9 +571,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 décembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 décembre 2020) :
 genre Aplysia Linnaeus, 1767 -- 34 espèces (genre-type)
 genre Bursatella Blainville, 1817 -- 1 espèce
 genre Dolabella Lamarck, 1801 -- 4 espèces
